--- a/Advanced-Python.xlsx
+++ b/Advanced-Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\Desktop\Python Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\Desktop\Python Training\Python Training Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE235AA1-7EAA-46BD-A762-3DE574975633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83107CF-68FC-4F79-B6C2-3A25633CD999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,17 +367,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="100.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="142.6328125" customWidth="1"/>
     <col min="3" max="3" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
